--- a/source_plates/ECHO_source_plate.xlsx
+++ b/source_plates/ECHO_source_plate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Desktop\UW\Carothers\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B54F9D0-FB63-4925-B40C-8B1FD7D84AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EED88F9-823A-436A-9974-1E338E2A7BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>p70a_RFP</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
@@ -91,6 +85,15 @@
   </si>
   <si>
     <t>p70a_RFP_1000x</t>
+  </si>
+  <si>
+    <t>Plasmid</t>
+  </si>
+  <si>
+    <t>A1,A2</t>
+  </si>
+  <si>
+    <t>65,65</t>
   </si>
 </sst>
 </file>
@@ -140,13 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,31 +465,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D29ACC-8067-425A-9239-04930501B2E7}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="15.578125" customWidth="1"/>
+    <col min="2" max="5" width="15.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -505,19 +511,22 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>65</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -537,19 +546,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="1">
-        <v>65</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -569,21 +583,24 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>150</v>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E4" s="3">
         <v>50</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -603,21 +620,24 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="3">
         <v>50</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -637,21 +657,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>150</v>
+      </c>
+      <c r="E6" s="3">
         <v>50</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -671,21 +694,24 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>150</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="3">
         <v>50</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -705,21 +731,24 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.5</v>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D8" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E8" s="3">
         <v>50</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -739,21 +768,9 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -773,8 +790,12 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -795,9 +816,9 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -821,9 +842,9 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -847,9 +868,9 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -873,9 +894,9 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -899,9 +920,9 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -925,9 +946,9 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -951,32 +972,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="Y16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/source_plates/ECHO_source_plate.xlsx
+++ b/source_plates/ECHO_source_plate.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Desktop\UW\Carothers\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EED88F9-823A-436A-9974-1E338E2A7BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4C6A44-3E0E-4210-9703-07E4C9F779C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="ECHO_source_plate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
-  <si>
-    <t>p70a_RFP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>TJ1_RFP</t>
   </si>
@@ -78,15 +75,9 @@
     <t>TJ1_RFP_100x</t>
   </si>
   <si>
-    <t>p70a_RFP_100x</t>
-  </si>
-  <si>
     <t>TJ1_RFP_1000x</t>
   </si>
   <si>
-    <t>p70a_RFP_1000x</t>
-  </si>
-  <si>
     <t>Plasmid</t>
   </si>
   <si>
@@ -94,6 +85,39 @@
   </si>
   <si>
     <t>65,65</t>
+  </si>
+  <si>
+    <t>pDA010.188</t>
+  </si>
+  <si>
+    <t>pRC029</t>
+  </si>
+  <si>
+    <t>pRC008.206</t>
+  </si>
+  <si>
+    <t>pRC014</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>pRC008.206_100x</t>
+  </si>
+  <si>
+    <t>pRC008.206_1000x</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>pRC008.206_10000x</t>
+  </si>
+  <si>
+    <t>A12</t>
   </si>
 </sst>
 </file>
@@ -468,29 +492,31 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="15.578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -513,19 +539,19 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -548,15 +574,15 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>150</v>
@@ -585,15 +611,15 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>1.5</v>
@@ -622,15 +648,15 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0.15</v>
@@ -659,18 +685,18 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>150</v>
+        <v>199.76</v>
       </c>
       <c r="E6" s="3">
         <v>50</v>
@@ -696,18 +722,18 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.5</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>201.96</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -733,18 +759,18 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.15</v>
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>164.65</v>
       </c>
       <c r="E8" s="3">
         <v>50</v>
@@ -770,7 +796,22 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>126.77</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -792,11 +833,22 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.16464999999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -818,11 +870,22 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16.465</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -844,11 +907,22 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.6465E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -870,7 +944,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -896,7 +970,7 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -922,7 +996,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -948,7 +1022,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/source_plates/ECHO_source_plate.xlsx
+++ b/source_plates/ECHO_source_plate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4C6A44-3E0E-4210-9703-07E4C9F779C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46E3422-4C89-4200-B766-58628B33B3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
+    <workbookView xWindow="11250" yWindow="5475" windowWidth="20295" windowHeight="14085" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="ECHO_source_plate" sheetId="1" r:id="rId1"/>
@@ -42,24 +42,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -81,12 +63,6 @@
     <t>Plasmid</t>
   </si>
   <si>
-    <t>A1,A2</t>
-  </si>
-  <si>
-    <t>65,65</t>
-  </si>
-  <si>
     <t>pDA010.188</t>
   </si>
   <si>
@@ -99,25 +75,49 @@
     <t>pRC014</t>
   </si>
   <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
     <t>pRC008.206_100x</t>
   </si>
   <si>
     <t>pRC008.206_1000x</t>
   </si>
   <si>
-    <t>A11</t>
-  </si>
-  <si>
     <t>pRC008.206_10000x</t>
   </si>
   <si>
-    <t>A12</t>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>A1,A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12</t>
+  </si>
+  <si>
+    <t>65,65,65,65,65,65,65,65,65,65,65,65</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,19 +504,19 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -547,11 +547,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>150</v>
@@ -616,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>1.5</v>
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>0.15</v>
@@ -687,13 +687,13 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>199.76</v>
@@ -724,13 +724,13 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>201.96</v>
@@ -761,13 +761,13 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>164.65</v>
@@ -798,13 +798,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>126.77</v>
@@ -835,53 +835,33 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" s="1">
-        <v>0.16464999999999999</v>
+        <v>16.465</v>
       </c>
       <c r="E10" s="3">
         <v>50</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" s="1">
-        <v>16.465</v>
+        <v>0.16464999999999999</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -909,13 +889,13 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>1.6465E-2</v>
@@ -945,10 +925,6 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>

--- a/source_plates/ECHO_source_plate.xlsx
+++ b/source_plates/ECHO_source_plate.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/source_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46E3422-4C89-4200-B766-58628B33B3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBEB614-D8FF-8F48-84A1-B58C66A184FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="5475" windowWidth="20295" windowHeight="14085" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
+    <workbookView xWindow="1500" yWindow="600" windowWidth="26980" windowHeight="14080" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="ECHO_source_plate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -492,17 +492,17 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -539,7 +539,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -574,7 +574,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -585,7 +585,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="E3" s="1">
         <v>50</v>
@@ -611,7 +611,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1">
-        <v>1.5</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E4" s="3">
         <v>50</v>
@@ -648,7 +648,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="E5" s="3">
         <v>50</v>
@@ -685,7 +685,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -699,7 +699,7 @@
         <v>199.76</v>
       </c>
       <c r="E6" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -722,7 +722,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -759,18 +759,18 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1">
-        <v>164.65</v>
+        <v>126.77</v>
       </c>
       <c r="E8" s="3">
         <v>50</v>
@@ -796,18 +796,18 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1">
-        <v>126.77</v>
+        <v>164.65</v>
       </c>
       <c r="E9" s="3">
         <v>50</v>
@@ -833,7 +833,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -847,10 +847,10 @@
         <v>16.465</v>
       </c>
       <c r="E10" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0.16464999999999999</v>
       </c>
       <c r="E11" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -887,7 +887,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -924,29 +924,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -972,7 +950,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -998,7 +976,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
